--- a/lesson-ref.xlsx
+++ b/lesson-ref.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ro-Fi\Programming\KGS-XI-Timetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29929660-8044-475E-B4FF-01E0860E2A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC019B53-1469-4207-97CB-4F1068640D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="11733" xr2:uid="{C2AA03AF-05CB-4972-B8DA-C8C25C508A64}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Locations" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
-  <si>
-    <t>Locations</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
   <si>
     <t>D1-AM</t>
   </si>
@@ -614,400 +611,397 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE2EA2A-706E-4E18-ABBB-2B266487D2D3}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A2" s="1"/>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B2" s="1"/>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B3" s="1"/>
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B4" s="1"/>
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B5" s="1"/>
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B6" s="1"/>
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B7" s="1"/>
       <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B8" s="1"/>
       <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B9" s="1"/>
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A10" s="1"/>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B10" s="1"/>
-      <c r="C10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A12" s="1"/>
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B12" s="1"/>
       <c r="C12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A13" s="1"/>
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B13" s="1"/>
       <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A14" s="1"/>
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B14" s="1"/>
       <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B15" s="1"/>
       <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A16" s="1"/>
+      <c r="B16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B16" s="1"/>
       <c r="C16" t="s">
         <v>32</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A17" s="1"/>
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B17" s="1"/>
       <c r="C17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A18" s="1"/>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
         <v>34</v>
       </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B18" s="1"/>
-      <c r="C18" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A19" s="1"/>
+      <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B19" s="1"/>
-      <c r="C19" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A20" s="1"/>
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B20" s="1"/>
-      <c r="C20" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A21" s="1"/>
+      <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="D20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B21" s="1"/>
       <c r="C21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>42</v>
       </c>
       <c r="C22" t="s">
         <v>43</v>
       </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A23" s="1"/>
+      <c r="B23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B23" s="1"/>
       <c r="C23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A24" s="1"/>
+      <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="D23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B24" s="1"/>
       <c r="C24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A25" s="1"/>
+      <c r="B25" t="s">
         <v>46</v>
       </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B25" s="1"/>
       <c r="C25" t="s">
         <v>47</v>
       </c>
-      <c r="D25" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A26" s="1"/>
+      <c r="B26" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B26" s="1"/>
       <c r="C26" t="s">
         <v>49</v>
       </c>
-      <c r="D26" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A27" s="1"/>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B27" s="1"/>
-      <c r="C27" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A28" s="1"/>
+      <c r="B28" t="s">
         <v>54</v>
       </c>
-      <c r="D27" t="s">
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A29" s="1"/>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B28" s="1"/>
-      <c r="C28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B29" s="1"/>
-      <c r="C29" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A30" s="1"/>
+      <c r="B30" t="s">
         <v>56</v>
       </c>
-      <c r="D29" t="s">
+      <c r="C30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B30" s="1"/>
-      <c r="C30" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B31" s="1" t="s">
-        <v>58</v>
+      <c r="B31" t="s">
+        <v>0</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
-      <c r="D31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B32" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A32" s="1"/>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
       <c r="C32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A33" s="1"/>
+      <c r="B33" t="s">
         <v>59</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C33" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B33" s="1"/>
-      <c r="C33" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A34" s="1"/>
+      <c r="B34" t="s">
         <v>60</v>
       </c>
-      <c r="D33" t="s">
+      <c r="C34" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B34" s="1"/>
-      <c r="C34" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A35" s="1"/>
+      <c r="B35" t="s">
         <v>61</v>
       </c>
-      <c r="D34" t="s">
+      <c r="C35" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B35" s="1"/>
-      <c r="C35" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A36" s="1"/>
+      <c r="B36" t="s">
         <v>62</v>
       </c>
-      <c r="D35" t="s">
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A37" s="1"/>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A38" s="1"/>
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B36" s="1"/>
-      <c r="C36" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B37" s="1"/>
-      <c r="C37" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B38" s="1"/>
-      <c r="C38" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A39" s="1"/>
+      <c r="B39" t="s">
         <v>65</v>
       </c>
-      <c r="D38" t="s">
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A40" s="1"/>
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A41" s="1"/>
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B39" s="1"/>
-      <c r="C39" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B40" s="1"/>
-      <c r="C40" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B41" s="1"/>
-      <c r="C41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B1:B10"/>
-    <mergeCell ref="B11:B21"/>
-    <mergeCell ref="B22:B30"/>
-    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="A1:A10"/>
+    <mergeCell ref="A11:A21"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="A31:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
